--- a/bimetallics/fe2s2_sharma/28__3d_3p_3p_3d_3p_3p_3p_3p/data.xlsx
+++ b/bimetallics/fe2s2_sharma/28__3d_3p_3p_3d_3p_3p_3p_3p/data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmayhall/code/FermiCG-data/bimetallics/fe2s2_sharma/28__3d_3p_3p_3d_3p_3p_3p_3p/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8D1769-24F6-5142-A863-17984792F343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B174ADA2-CF69-E243-9D65-6CDE68AB9A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="2" xr2:uid="{39866DF4-5F4A-3A4A-808C-3A40360BBC12}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="3" xr2:uid="{39866DF4-5F4A-3A4A-808C-3A40360BBC12}"/>
   </bookViews>
   <sheets>
     <sheet name="m030" sheetId="1" r:id="rId1"/>
     <sheet name="notuck_m030" sheetId="3" r:id="rId2"/>
     <sheet name="nospin_m100" sheetId="5" r:id="rId3"/>
+    <sheet name="m100" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
   <si>
     <t>E(Var)</t>
   </si>
@@ -2642,6 +2643,2727 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-17ED-5340-BFB2-01AC6E440B70}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1061479663"/>
+        <c:axId val="209556079"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1061479663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="209556079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="209556079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1061479663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'m100'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'m100'!$K$13:$K$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-1.8415600000025734E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.0270500000046923E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.2841999995980586E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.5854999998055064E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7.809999999608408E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.2129999997086998E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.4259999975129176E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'m100'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-263.66190913999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-263.6629418</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-263.66391599000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-263.66428593000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-263.66444094000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-263.66449598999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-263.66452217</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0CA1-B849-9EA6-85228D230FFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'m100'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'m100'!$L$13:$L$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-1.9100399999842921E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.1405700000182151E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.6611000004759262E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.8388000000868487E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7.7330000010533695E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.9970000045741472E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.1540000034292461E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'m100'!$E$3:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-263.66172576000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-263.66274824999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-263.66371070999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-263.66408137000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-263.66422</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-263.66426983999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-263.66429457999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0CA1-B849-9EA6-85228D230FFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1029562799"/>
+        <c:axId val="1011661119"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1029562799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1011661119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1011661119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1029562799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'m100'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'m100'!$C$3:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4184</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9174</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19050</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32619</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55365</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'m100'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-263.66190913999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-263.6629418</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-263.66391599000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-263.66428593000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-263.66444094000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-263.66449598999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-263.66452217</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9A19-654D-954F-E1185AD661F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'m100'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'m100'!$C$3:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4184</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9174</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19050</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32619</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55365</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'m100'!$E$3:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-263.66172576000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-263.66274824999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-263.66371070999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-263.66408137000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-263.66422</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-263.66426983999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-263.66429457999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9A19-654D-954F-E1185AD661F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'m100'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'m100'!$C$3:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4184</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9174</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19050</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32619</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55365</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'m100'!$F$3:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-263.66135737000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-263.66236053</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-263.66327367999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-263.66361353000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-263.66375591000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-263.66380531999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-263.66382995999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9A19-654D-954F-E1185AD661F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'m100'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'m100'!$C$3:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4184</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9174</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19050</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32619</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55365</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'m100'!$G$3:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-263.66080068999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-263.66177770000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-263.66264322000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-263.66295867000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-263.66307752</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-263.66312052000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-263.66314151</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9A19-654D-954F-E1185AD661F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'m100'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'m100'!$C$3:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4184</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9174</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19050</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32619</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55365</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'m100'!$H$3:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-263.66005063</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-263.66099692</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-263.66178652000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-263.66205538000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-263.66216405</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-263.66220240000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-263.66222139000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9A19-654D-954F-E1185AD661F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'m100'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'m100'!$C$3:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4184</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9174</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19050</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32619</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55365</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'m100'!$I$3:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-263.65910009999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-263.66001547000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-263.66071885000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-263.66094022999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-263.66102764999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-263.66105741000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-263.66107434000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9A19-654D-954F-E1185AD661F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1013918367"/>
+        <c:axId val="481134240"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1013918367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="481134240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="481134240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1013918367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'m100'!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'m100'!$C$3:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4184</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9174</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19050</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32619</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55365</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'m100'!$K$3:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-263.66375069999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-263.66396885</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-263.66424440999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-263.66444447999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-263.66451904000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-263.66453811999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-263.66454642999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0277-2049-B303-03FDE4825361}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'m100'!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'m100'!$C$3:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4184</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9174</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19050</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32619</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55365</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'m100'!$L$3:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-263.66363580000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-263.66388882000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-263.66417682000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-263.66426525000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-263.66429733000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-263.66430981000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-263.66431612000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0277-2049-B303-03FDE4825361}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'m100'!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'m100'!$C$3:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4184</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9174</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19050</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32619</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55365</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'m100'!$M$3:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-263.66324216999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-263.66350806999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-263.66378458999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-263.66381419999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-263.66383579000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-263.66384612000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-263.66385224999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0277-2049-B303-03FDE4825361}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'m100'!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'m100'!$C$3:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4184</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9174</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19050</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32619</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55365</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'m100'!$N$3:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-263.66251022</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-263.66273827999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-263.66299723999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-263.66309918000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-263.66313847999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-263.66315164000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-263.66315773000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0277-2049-B303-03FDE4825361}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'m100'!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'m100'!$C$3:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4184</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9174</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19050</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32619</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55365</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'m100'!$O$3:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-263.66160058000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-263.66180265999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-263.66204848000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-263.66217351</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-263.66221717000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-263.66222979999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-263.66223504999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0277-2049-B303-03FDE4825361}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'m100'!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'m100'!$C$3:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4184</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9174</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19050</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32619</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55365</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'m100'!$P$3:$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-263.66049784</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-263.66068290999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-263.66090206000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-263.66103407999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-263.66107362000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-263.66108283</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-263.66108688999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0277-2049-B303-03FDE4825361}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1013918367"/>
+        <c:axId val="481134240"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1013918367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="481134240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="481134240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1013918367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'m100'!$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gap (Var)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'m100'!$B$13:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4184</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9174</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19050</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32619</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55365</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'m100'!$C$13:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-40.247257639107481</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-42.479314637788526</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-45.053752056409039</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-44.895730309734262</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-48.490724756525687</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-49.634187575190175</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-49.950231043588353</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FE8D-C243-A9DC-98BD0BFB66C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'m100'!$D$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gap (PT2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'m100'!$B$13:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4184</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9174</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19050</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32619</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55365</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'m100'!$D$13:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-25.217634980719758</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-17.564554637220617</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-14.834290232442074</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-39.33643792565951</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-48.65972021845436</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-50.108252765311754</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-50.547202024203514</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FE8D-C243-A9DC-98BD0BFB66C6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8145,6 +10867,166 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10053,6 +12935,2070 @@
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15161,6 +20107,163 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>149541</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>22100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>598164</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>120842</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFA75555-3CAF-A449-9F9A-B198F36E3F89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>824675</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>448623</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>98741</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8140C98-0E39-9E49-9C21-5B3E1A7B71D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>824675</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>203419</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>448623</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>98741</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47C0EE6A-6725-7B4F-AA41-D9DF972E5B55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>484909</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>159547</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>54868</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8922B27-EC39-6D4E-B086-D03A646D2E1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -15460,7 +20563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC26EF3-A721-024A-AE1C-FE10F9E1F0BC}">
   <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="231" workbookViewId="0">
+    <sheetView zoomScale="231" workbookViewId="0">
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
@@ -17059,8 +22162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4102AA8-6650-864E-8F2D-16C2B95AF095}">
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H10" zoomScale="231" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView zoomScale="231" workbookViewId="0">
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17998,6 +23101,886 @@
       <c r="U23" s="6">
         <f>$A$1*(S17-V17)</f>
         <v>-52.385333375385059</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="E25" s="3"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="E26" s="3"/>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="I32" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="R1:W1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76AF132-F543-5F48-B380-F99F7C45957F}">
+  <dimension ref="A1:W32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="231" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="18" max="18" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>219474.63</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="R1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2">
+        <v>5</v>
+      </c>
+      <c r="P2">
+        <v>6</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>2</v>
+      </c>
+      <c r="T2">
+        <v>3</v>
+      </c>
+      <c r="U2">
+        <v>4</v>
+      </c>
+      <c r="V2">
+        <v>5</v>
+      </c>
+      <c r="W2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>254</v>
+      </c>
+      <c r="D3">
+        <v>-263.66190913999998</v>
+      </c>
+      <c r="E3">
+        <v>-263.66172576000002</v>
+      </c>
+      <c r="F3">
+        <v>-263.66135737000002</v>
+      </c>
+      <c r="G3">
+        <v>-263.66080068999997</v>
+      </c>
+      <c r="H3">
+        <v>-263.66005063</v>
+      </c>
+      <c r="I3">
+        <v>-263.65910009999999</v>
+      </c>
+      <c r="K3">
+        <v>-263.66375069999998</v>
+      </c>
+      <c r="L3">
+        <v>-263.66363580000001</v>
+      </c>
+      <c r="M3">
+        <v>-263.66324216999999</v>
+      </c>
+      <c r="N3">
+        <v>-263.66251022</v>
+      </c>
+      <c r="O3">
+        <v>-263.66160058000003</v>
+      </c>
+      <c r="P3">
+        <v>-263.66049784</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+      <c r="T3">
+        <v>6</v>
+      </c>
+      <c r="U3">
+        <v>12</v>
+      </c>
+      <c r="V3">
+        <v>20</v>
+      </c>
+      <c r="W3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>832</v>
+      </c>
+      <c r="D4">
+        <v>-263.6629418</v>
+      </c>
+      <c r="E4">
+        <v>-263.66274824999999</v>
+      </c>
+      <c r="F4">
+        <v>-263.66236053</v>
+      </c>
+      <c r="G4">
+        <v>-263.66177770000002</v>
+      </c>
+      <c r="H4">
+        <v>-263.66099692</v>
+      </c>
+      <c r="I4">
+        <v>-263.66001547000002</v>
+      </c>
+      <c r="K4">
+        <v>-263.66396885</v>
+      </c>
+      <c r="L4">
+        <v>-263.66388882000001</v>
+      </c>
+      <c r="M4">
+        <v>-263.66350806999998</v>
+      </c>
+      <c r="N4">
+        <v>-263.66273827999999</v>
+      </c>
+      <c r="O4">
+        <v>-263.66180265999998</v>
+      </c>
+      <c r="P4">
+        <v>-263.66068290999999</v>
+      </c>
+      <c r="R4">
+        <v>9.7669899999999997E-3</v>
+      </c>
+      <c r="S4">
+        <v>1.9915326900000001</v>
+      </c>
+      <c r="T4">
+        <v>6.0026566399999997</v>
+      </c>
+      <c r="U4">
+        <v>11.99715168</v>
+      </c>
+      <c r="V4">
+        <v>20.001587099999998</v>
+      </c>
+      <c r="W4">
+        <v>29.997307030000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>4184</v>
+      </c>
+      <c r="D5">
+        <v>-263.66391599000002</v>
+      </c>
+      <c r="E5">
+        <v>-263.66371070999998</v>
+      </c>
+      <c r="F5">
+        <v>-263.66327367999997</v>
+      </c>
+      <c r="G5">
+        <v>-263.66264322000001</v>
+      </c>
+      <c r="H5">
+        <v>-263.66178652000002</v>
+      </c>
+      <c r="I5">
+        <v>-263.66071885000002</v>
+      </c>
+      <c r="K5">
+        <v>-263.66424440999998</v>
+      </c>
+      <c r="L5">
+        <v>-263.66417682000002</v>
+      </c>
+      <c r="M5">
+        <v>-263.66378458999998</v>
+      </c>
+      <c r="N5">
+        <v>-263.66299723999998</v>
+      </c>
+      <c r="O5">
+        <v>-263.66204848000001</v>
+      </c>
+      <c r="P5">
+        <v>-263.66090206000001</v>
+      </c>
+      <c r="R5">
+        <v>9.4476E-4</v>
+      </c>
+      <c r="S5">
+        <v>2.00010574</v>
+      </c>
+      <c r="T5">
+        <v>5.9992823700000004</v>
+      </c>
+      <c r="U5">
+        <v>11.999891079999999</v>
+      </c>
+      <c r="V5">
+        <v>19.999862539999999</v>
+      </c>
+      <c r="W5">
+        <v>29.999908139999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>9174</v>
+      </c>
+      <c r="D6">
+        <v>-263.66428593000001</v>
+      </c>
+      <c r="E6">
+        <v>-263.66408137000002</v>
+      </c>
+      <c r="F6">
+        <v>-263.66361353000002</v>
+      </c>
+      <c r="G6">
+        <v>-263.66295867000002</v>
+      </c>
+      <c r="H6">
+        <v>-263.66205538000003</v>
+      </c>
+      <c r="I6">
+        <v>-263.66094022999999</v>
+      </c>
+      <c r="K6">
+        <v>-263.66444447999999</v>
+      </c>
+      <c r="L6">
+        <v>-263.66426525000003</v>
+      </c>
+      <c r="M6">
+        <v>-263.66381419999999</v>
+      </c>
+      <c r="N6">
+        <v>-263.66309918000002</v>
+      </c>
+      <c r="O6">
+        <v>-263.66217351</v>
+      </c>
+      <c r="P6">
+        <v>-263.66103407999998</v>
+      </c>
+      <c r="R6">
+        <v>2.4233749999999998E-2</v>
+      </c>
+      <c r="S6">
+        <v>1.97811826</v>
+      </c>
+      <c r="T6">
+        <v>6.0000902199999997</v>
+      </c>
+      <c r="U6">
+        <v>11.99976079</v>
+      </c>
+      <c r="V6">
+        <v>19.998330769999999</v>
+      </c>
+      <c r="W6">
+        <v>29.999501200000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>19050</v>
+      </c>
+      <c r="D7">
+        <v>-263.66444094000002</v>
+      </c>
+      <c r="E7">
+        <v>-263.66422</v>
+      </c>
+      <c r="F7">
+        <v>-263.66375591000002</v>
+      </c>
+      <c r="G7">
+        <v>-263.66307752</v>
+      </c>
+      <c r="H7">
+        <v>-263.66216405</v>
+      </c>
+      <c r="I7">
+        <v>-263.66102764999999</v>
+      </c>
+      <c r="K7">
+        <v>-263.66451904000002</v>
+      </c>
+      <c r="L7">
+        <v>-263.66429733000001</v>
+      </c>
+      <c r="M7">
+        <v>-263.66383579000001</v>
+      </c>
+      <c r="N7">
+        <v>-263.66313847999999</v>
+      </c>
+      <c r="O7">
+        <v>-263.66221717000002</v>
+      </c>
+      <c r="P7">
+        <v>-263.66107362000002</v>
+      </c>
+      <c r="R7">
+        <v>1.08077E-3</v>
+      </c>
+      <c r="S7">
+        <v>2.0000562999999998</v>
+      </c>
+      <c r="T7">
+        <v>5.9993048800000004</v>
+      </c>
+      <c r="U7">
+        <v>11.999976350000001</v>
+      </c>
+      <c r="V7">
+        <v>19.999666099999999</v>
+      </c>
+      <c r="W7">
+        <v>29.999930469999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>32619</v>
+      </c>
+      <c r="D8">
+        <v>-263.66449598999998</v>
+      </c>
+      <c r="E8">
+        <v>-263.66426983999997</v>
+      </c>
+      <c r="F8">
+        <v>-263.66380531999999</v>
+      </c>
+      <c r="G8">
+        <v>-263.66312052000001</v>
+      </c>
+      <c r="H8">
+        <v>-263.66220240000001</v>
+      </c>
+      <c r="I8">
+        <v>-263.66105741000001</v>
+      </c>
+      <c r="K8">
+        <v>-263.66453811999997</v>
+      </c>
+      <c r="L8">
+        <v>-263.66430981000002</v>
+      </c>
+      <c r="M8">
+        <v>-263.66384612000002</v>
+      </c>
+      <c r="N8">
+        <v>-263.66315164000002</v>
+      </c>
+      <c r="O8">
+        <v>-263.66222979999998</v>
+      </c>
+      <c r="P8">
+        <v>-263.66108283</v>
+      </c>
+      <c r="R8">
+        <v>5.1946999999999996E-4</v>
+      </c>
+      <c r="S8">
+        <v>1.9998948400000001</v>
+      </c>
+      <c r="T8">
+        <v>5.99987738</v>
+      </c>
+      <c r="U8">
+        <v>12.000064890000001</v>
+      </c>
+      <c r="V8">
+        <v>19.999726580000001</v>
+      </c>
+      <c r="W8">
+        <v>29.999921050000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>55365</v>
+      </c>
+      <c r="D9">
+        <v>-263.66452217</v>
+      </c>
+      <c r="E9">
+        <v>-263.66429457999999</v>
+      </c>
+      <c r="F9">
+        <v>-263.66382995999999</v>
+      </c>
+      <c r="G9">
+        <v>-263.66314151</v>
+      </c>
+      <c r="H9">
+        <v>-263.66222139000001</v>
+      </c>
+      <c r="I9">
+        <v>-263.66107434000003</v>
+      </c>
+      <c r="K9">
+        <v>-263.66454642999997</v>
+      </c>
+      <c r="L9">
+        <v>-263.66431612000002</v>
+      </c>
+      <c r="M9">
+        <v>-263.66385224999999</v>
+      </c>
+      <c r="N9">
+        <v>-263.66315773000002</v>
+      </c>
+      <c r="O9">
+        <v>-263.66223504999999</v>
+      </c>
+      <c r="P9">
+        <v>-263.66108688999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12">
+        <f>K2</f>
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ref="L12:P12" si="0">L2</f>
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <f>C3</f>
+        <v>254</v>
+      </c>
+      <c r="C13">
+        <f>(D3-E3)*$A$1</f>
+        <v>-40.247257639107481</v>
+      </c>
+      <c r="D13">
+        <f>(K3-L3)*$A$1</f>
+        <v>-25.217634980719758</v>
+      </c>
+      <c r="K13">
+        <f>K3-D3</f>
+        <v>-1.8415600000025734E-3</v>
+      </c>
+      <c r="L13">
+        <f>L3-E3</f>
+        <v>-1.9100399999842921E-3</v>
+      </c>
+      <c r="M13">
+        <f>M3-F3</f>
+        <v>-1.8847999999707099E-3</v>
+      </c>
+      <c r="N13">
+        <f>N3-G3</f>
+        <v>-1.7095300000278257E-3</v>
+      </c>
+      <c r="O13">
+        <f>O3-H3</f>
+        <v>-1.5499500000260014E-3</v>
+      </c>
+      <c r="P13">
+        <f>P3-I3</f>
+        <v>-1.3977400000158013E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <f t="shared" ref="B14:B20" si="1">C4</f>
+        <v>832</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:C20" si="2">(D4-E4)*$A$1</f>
+        <v>-42.479314637788526</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:D20" si="3">(K4-L4)*$A$1</f>
+        <v>-17.564554637220617</v>
+      </c>
+      <c r="K14">
+        <f t="shared" ref="K14:P20" si="4">K4-D4</f>
+        <v>-1.0270500000046923E-3</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="4"/>
+        <v>-1.1405700000182151E-3</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="4"/>
+        <v>-1.1475399999767433E-3</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="4"/>
+        <v>-9.6057999996901344E-4</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="4"/>
+        <v>-8.0573999997568535E-4</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="4"/>
+        <v>-6.6743999997243009E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>4184</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>-45.053752056409039</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="3"/>
+        <v>-14.834290232442074</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="4"/>
+        <v>-3.2841999995980586E-4</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="4"/>
+        <v>-4.6611000004759262E-4</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="4"/>
+        <v>-5.109100000026956E-4</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="4"/>
+        <v>-3.5401999997475286E-4</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="4"/>
+        <v>-2.6195999998890329E-4</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="4"/>
+        <v>-1.8320999998877596E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>9174</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>-44.895730309734262</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="3"/>
+        <v>-39.33643792565951</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="4"/>
+        <v>-1.5854999998055064E-4</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="4"/>
+        <v>-1.8388000000868487E-4</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="4"/>
+        <v>-2.006699999697048E-4</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="4"/>
+        <v>-1.4050999999426494E-4</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="4"/>
+        <v>-1.181299999757357E-4</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="4"/>
+        <v>-9.3849999984740862E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>19050</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>-48.490724756525687</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="3"/>
+        <v>-48.65972021845436</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="4"/>
+        <v>-7.809999999608408E-5</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="4"/>
+        <v>-7.7330000010533695E-5</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="4"/>
+        <v>-7.9879999987042538E-5</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="4"/>
+        <v>-6.0959999984788737E-5</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="4"/>
+        <v>-5.3120000018225255E-5</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="4"/>
+        <v>-4.5970000030592928E-5</v>
+      </c>
+      <c r="R17" t="e" cm="1">
+        <f t="array" ref="R17">LINEST(D6:D10,K16:K20, TRUE, TRUE)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S17" s="5"/>
+      <c r="U17" t="e" cm="1">
+        <f t="array" ref="U17">LINEST(E6:E10,L16:L20, TRUE, TRUE)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V17" s="5"/>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>32619</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>-49.634187575190175</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="3"/>
+        <v>-50.108252765311754</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>-4.2129999997086998E-5</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="4"/>
+        <v>-3.9970000045741472E-5</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="4"/>
+        <v>-4.0800000022045424E-5</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="4"/>
+        <v>-3.1120000016926497E-5</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="4"/>
+        <v>-2.7399999964927702E-5</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="4"/>
+        <v>-2.5419999985842878E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>55365</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>-49.950231043588353</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="3"/>
+        <v>-50.547202024203514</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="4"/>
+        <v>-2.4259999975129176E-5</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="4"/>
+        <v>-2.1540000034292461E-5</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="4"/>
+        <v>-2.2290000003977184E-5</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="4"/>
+        <v>-1.6220000020439329E-5</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="4"/>
+        <v>-1.3659999979154236E-5</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="4"/>
+        <v>-1.254999995126127E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="3"/>
+      <c r="V20" s="3"/>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="E23" s="3"/>
+      <c r="U23" s="6">
+        <f>$A$1*(S17-V17)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.2">
